--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_149.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_149.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,682 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(4.74, 8.62)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[('0:00:43.120000', '0:00:59.640000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:09.480000', '0:00:33.680000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(107.1, 111.48)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(116.7, 122.32)]</t>
+          <t>[('0:00:01.340000', '0:00:08.860000'), ('0:00:54.180000', '0:01:01.460000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
-        </is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1087570621468927</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(51.28, 62.78)]</t>
+          <t>[['G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(27.52, 38.5)]</t>
+          <t>[('0:00:17.014988', '0:00:20.892721')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:29.965374', '0:00:34.307505')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>isophonics_255</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>0.1136044880785414</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[['F:min', 'A#:min/F', 'F:min']]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[(27.789047, 31.109501)]</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(13.52, 19.88)]</t>
+          <t>[('0:00:00.700000', '0:00:03.780000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(44.18, 61.66)]</t>
+          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(9.48, 33.68)]</t>
+          <t>[('0:00:06.280000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:00:17.860000', '0:00:28.300000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09999999999999999</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'D/b7'], ['D', 'D/b7', 'G/3']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5357142857142857</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'B/7'], ['B', 'B/3', 'E']]</t>
+          <t>[['A', 'D', 'A', 'E'], ['A', 'E', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(31.439841, 35.781972), (32.879478, 37.291269)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj'], ['D:maj/A', 'A:maj', 'A:7', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(4.940612, 6.577619), (153.617981, 161.988775)]</t>
+          <t>[('0:00:40.490000', '0:00:50.260000'), ('0:00:00.522000', '0:00:07.205000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
+          <t>[('0:01:00.040000', '0:01:10.960000'), ('0:02:18.280000', '0:02:34.200000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06)]</t>
+          <t>[('0:00:05.700000', '0:00:12.080000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:20.420000', '0:00:23.500000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_182</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[['G', 'C/5', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:59.182426', '0:01:04.464965')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(120.66, 122.74)]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(75.56, 95.68)]</t>
+          <t>[('0:01:03.240000', '0:01:06.800000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:18.460000', '0:00:21.820000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['E:7', 'A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(5.88, 21.16)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(5.78, 21.0)]</t>
+          <t>[('0:00:00.446618', '0:00:18.139715')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:53.960000', '0:01:05.560000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(96.74, 108.82)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(83.76, 92.66)]</t>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(45.76, 55.48)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(26.16, 36.86)]</t>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min'], ['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (65.26, 71.04)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6), (28.02, 30.1)]</t>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(11.06, 66.82)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(10.94, 65.78)]</t>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:01.440000', '0:02:10.840000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(41.58, 43.48)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(36.66, 43.94)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
